--- a/assets/invoice_report.xlsx
+++ b/assets/invoice_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Supervisao\Documents\docs\helpers\vipapp\quickwork\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680C0DF2-ABF5-41A5-B86D-62BD4109D77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B509FE4-5F59-40F4-A9FB-491994F1FD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,8 +44,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId17"/>
-    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="2" r:id="rId17"/>
+    <pivotCache cacheId="3" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="231">
   <si>
     <t>RELATORIO DIÁRIO DE FACTURAS RECEBIDAS</t>
   </si>
@@ -773,6 +773,12 @@
   </si>
   <si>
     <t>2484</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>00032</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1941,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F673E40-27FC-4B23-850A-25CF2FEDC4D4}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F673E40-27FC-4B23-850A-25CF2FEDC4D4}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -2042,7 +2048,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34EA7E88-28E6-495F-A970-E9BA2B54AF03}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34EA7E88-28E6-495F-A970-E9BA2B54AF03}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2138,13 +2144,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D70AC153-F642-465C-8A5C-B9D7BC8D0605}" name="Table1" displayName="Table1" ref="A3:F61" totalsRowShown="0" headerRowDxfId="38" headerRowCellStyle="Accent5">
-  <autoFilter ref="A3:F61" xr:uid="{D70AC153-F642-465C-8A5C-B9D7BC8D0605}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="(07/07/2023)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:F61" xr:uid="{D70AC153-F642-465C-8A5C-B9D7BC8D0605}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3A2B4CEE-4DFA-4F58-AD5F-77AC146AFE97}" name="DATA" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{790706E8-AE22-4D0A-A8C5-1B1007598A6B}" name="NUMERO" dataDxfId="36"/>
@@ -4535,10 +4535,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A80845-2C96-4FA1-87C0-84083C9C2335}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4593,7 +4593,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>166</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>166</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>166</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>166</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>166</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>166</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
         <v>166</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>166</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>166</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>178</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>178</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>178</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>178</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>178</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>189</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>189</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>189</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>189</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
         <v>189</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>189</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
         <v>189</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>189</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>189</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>189</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
         <v>201</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
         <v>189</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
         <v>189</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="69" t="s">
         <v>189</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
         <v>202</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>202</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
         <v>202</v>
       </c>
@@ -5202,10 +5202,10 @@
         <v>100</v>
       </c>
       <c r="F34" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="69" t="s">
         <v>202</v>
       </c>
@@ -5219,13 +5219,13 @@
         <v>100</v>
       </c>
       <c r="E35" s="72">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="72">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
         <v>202</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>67</v>
       </c>
       <c r="D36" s="72">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E36" s="72">
         <v>100</v>
@@ -5245,7 +5245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
         <v>202</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>67</v>
       </c>
       <c r="D37" s="72">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E37" s="72">
         <v>100</v>
@@ -5265,7 +5265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
         <v>202</v>
       </c>
@@ -5279,13 +5279,13 @@
         <v>100</v>
       </c>
       <c r="E38" s="72">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F38" s="72">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
         <v>211</v>
       </c>
@@ -5302,10 +5302,10 @@
         <v>100</v>
       </c>
       <c r="F39" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="69" t="s">
         <v>211</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="69" t="s">
         <v>211</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="69" t="s">
         <v>211</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="69" t="s">
         <v>211</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="69" t="s">
         <v>211</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="69" t="s">
         <v>211</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
         <v>211</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="69" t="s">
         <v>211</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="69" t="s">
         <v>211</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="69" t="s">
         <v>211</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="69" t="s">
         <v>211</v>
       </c>
@@ -5539,9 +5539,11 @@
         <v>100</v>
       </c>
       <c r="E51" s="72">
-        <v>100</v>
-      </c>
-      <c r="F51" s="72"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="72">
+        <v>100</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="69" t="s">
@@ -5559,7 +5561,9 @@
       <c r="E52" s="72">
         <v>100</v>
       </c>
-      <c r="F52" s="72"/>
+      <c r="F52" s="72">
+        <v>-100</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="69" t="s">
@@ -5577,7 +5581,9 @@
       <c r="E53" s="72">
         <v>100</v>
       </c>
-      <c r="F53" s="72"/>
+      <c r="F53" s="72">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="69" t="s">
@@ -5593,9 +5599,11 @@
         <v>100</v>
       </c>
       <c r="E54" s="72">
-        <v>100</v>
-      </c>
-      <c r="F54" s="72"/>
+        <v>-100</v>
+      </c>
+      <c r="F54" s="72">
+        <v>100</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="69" t="s">
@@ -5613,7 +5621,9 @@
       <c r="E55" s="72">
         <v>100</v>
       </c>
-      <c r="F55" s="72"/>
+      <c r="F55" s="72">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="69" t="s">
@@ -5631,7 +5641,9 @@
       <c r="E56" s="72">
         <v>100</v>
       </c>
-      <c r="F56" s="72"/>
+      <c r="F56" s="72">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="69" t="s">
@@ -5649,7 +5661,9 @@
       <c r="E57" s="72">
         <v>100</v>
       </c>
-      <c r="F57" s="72"/>
+      <c r="F57" s="72">
+        <v>100</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="69" t="s">
@@ -5664,8 +5678,12 @@
       <c r="D58" s="72">
         <v>100</v>
       </c>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
+      <c r="E58" s="72">
+        <v>100</v>
+      </c>
+      <c r="F58" s="72">
+        <v>100</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="69" t="s">
@@ -5680,8 +5698,12 @@
       <c r="D59" s="72">
         <v>100</v>
       </c>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
+      <c r="E59" s="72">
+        <v>100</v>
+      </c>
+      <c r="F59" s="72">
+        <v>100</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="69" t="s">
@@ -5696,8 +5718,12 @@
       <c r="D60" s="72">
         <v>100</v>
       </c>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
+      <c r="E60" s="72">
+        <v>100</v>
+      </c>
+      <c r="F60" s="72">
+        <v>-100</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="69" t="s">
@@ -5712,8 +5738,52 @@
       <c r="D61" s="72">
         <v>100</v>
       </c>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
+      <c r="E61" s="72">
+        <v>100</v>
+      </c>
+      <c r="F61" s="72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="72">
+        <v>-100</v>
+      </c>
+      <c r="E62" s="72">
+        <v>-100</v>
+      </c>
+      <c r="F62" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="72">
+        <v>-100</v>
+      </c>
+      <c r="E63" s="72">
+        <v>-100</v>
+      </c>
+      <c r="F63" s="72">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5721,10 +5791,10 @@
     <mergeCell ref="D2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E12">
-    <cfRule type="iconSet" priority="287">
+    <cfRule type="iconSet" priority="288">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5733,7 +5803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E17">
-    <cfRule type="iconSet" priority="299">
+    <cfRule type="iconSet" priority="300">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5741,8 +5811,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E31 D40:E40 D41:F48 D49:E50 F4:F38 D32:F39 D51:D61 E51:E57 F40:F50">
-    <cfRule type="iconSet" priority="309">
+  <conditionalFormatting sqref="D18:E31 D40:E40 D41:F47 F4:F38 D32:F39 F40:F61 D56:E61 E49:E55 E48:F48 D48:D55 D62:F62">
+    <cfRule type="iconSet" priority="310">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:F63">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5762,13 +5841,13 @@
           <x14:formula1>
             <xm:f>DB!$B$7:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:F61</xm:sqref>
+          <xm:sqref>D4:F63</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{360329EC-B1C6-49A5-ADF9-C76203C1C6D5}">
           <x14:formula1>
             <xm:f>DB!$C$7:$C$31</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C61</xm:sqref>
+          <xm:sqref>C4:C63</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/assets/invoice_report.xlsx
+++ b/assets/invoice_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Supervisao\Documents\docs\helpers\vipapp\quickwork\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B509FE4-5F59-40F4-A9FB-491994F1FD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED44B3A-03E2-4941-B38F-AAAE51248764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_invoicesA1B121" hidden="1">invoices!$A$1:$B$12</definedName>
-    <definedName name="invoice_table">Table1[]</definedName>
-    <definedName name="invoice_tbl">Table1[]</definedName>
-    <definedName name="main_invoice_tbl">Table1[#All]</definedName>
+    <definedName name="invoice_table">#REF!</definedName>
+    <definedName name="invoice_tbl">#REF!</definedName>
+    <definedName name="main_invoice_tbl">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Relatorio-20-06'!$A$2:$F$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Relatorio-21-06 (2)'!$A$2:$F$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Relatorio-22-06'!$A$2:$F$43</definedName>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="246">
   <si>
     <t>RELATORIO DIÁRIO DE FACTURAS RECEBIDAS</t>
   </si>
@@ -691,9 +691,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Otis</t>
-  </si>
-  <si>
     <t>(05/07/2023)</t>
   </si>
   <si>
@@ -718,9 +715,6 @@
     <t>2446</t>
   </si>
   <si>
-    <t>2447</t>
-  </si>
-  <si>
     <t>(06/07/2023)</t>
   </si>
   <si>
@@ -775,10 +769,61 @@
     <t>2484</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00032</t>
+    <t>(11/07/2023)</t>
+  </si>
+  <si>
+    <t>(08/07/2023)</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>2493</t>
+  </si>
+  <si>
+    <t>2491</t>
+  </si>
+  <si>
+    <t>2494</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>0008747</t>
+  </si>
+  <si>
+    <t>8670</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>436/23np</t>
+  </si>
+  <si>
+    <t>(10/07/2023)</t>
+  </si>
+  <si>
+    <t>6230</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>A005536</t>
+  </si>
+  <si>
+    <t>90/840</t>
+  </si>
+  <si>
+    <t>90/843</t>
+  </si>
+  <si>
+    <t>90/842</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1065,6 +1110,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1072,7 +1209,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1340,6 +1477,52 @@
     <xf numFmtId="49" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1347,7 +1530,225 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="0"/>
+        </left>
+        <right style="medium">
+          <color theme="0"/>
+        </right>
+        <top style="medium">
+          <color theme="0"/>
+        </top>
+        <bottom style="medium">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="mediumDashed">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1528,184 +1929,6 @@
       <font>
         <color auto="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2143,15 +2366,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D70AC153-F642-465C-8A5C-B9D7BC8D0605}" name="Table1" displayName="Table1" ref="A3:F61" totalsRowShown="0" headerRowDxfId="38" headerRowCellStyle="Accent5">
-  <autoFilter ref="A3:F61" xr:uid="{D70AC153-F642-465C-8A5C-B9D7BC8D0605}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59D3C32A-5F94-4167-BAFD-47802A23A0C0}" name="Table13" displayName="Table13" ref="A3:F76" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" headerRowCellStyle="Accent5">
+  <autoFilter ref="A3:F76" xr:uid="{59D3C32A-5F94-4167-BAFD-47802A23A0C0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3A2B4CEE-4DFA-4F58-AD5F-77AC146AFE97}" name="DATA" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{790706E8-AE22-4D0A-A8C5-1B1007598A6B}" name="NUMERO" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{CAF9D8C6-3E44-4B05-953B-9854F8D94F61}" name="FORNECEDOR" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{453BB96D-9AE5-4303-B909-77EA1F63408E}" name="ENTRADA" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{E8A38CAB-5553-4FE9-96B5-22358074BE89}" name="FINALIZAÇÃO" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{080638B8-2BDF-4D75-85E0-E8B1E83C7CAB}" name="SUJIT"/>
+    <tableColumn id="1" xr3:uid="{A965B696-0E2D-4F8F-9418-3F239A41703A}" name="DATA" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B4E3DB83-AB6B-4F78-8041-13C851E1CAB8}" name="NUMERO" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F4F24577-E69A-43CD-829A-FACF6E839352}" name="FORNECEDOR" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{271E97DD-8F02-469F-92A2-7E87F1A3654C}" name="ENTRADA" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{376ECA2E-0C4E-4C01-AA03-AF902DFAC4E3}" name="FINALIZAÇÃO" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{44CDFBE5-E2BC-4EB5-80CF-61DA7D7BBEA5}" name="SUJIT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2973,10 +3196,10 @@
     <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G28">
     <cfRule type="iconSet" priority="3">
@@ -3310,13 +3533,13 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="12" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4">
-    <cfRule type="duplicateValues" dxfId="11" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B27">
-    <cfRule type="duplicateValues" dxfId="10" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F18">
     <cfRule type="iconSet" priority="252">
@@ -3625,13 +3848,13 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B18">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F18">
     <cfRule type="iconSet" priority="1">
@@ -3892,13 +4115,13 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="duplicateValues" dxfId="4" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D15 D4:E10">
     <cfRule type="iconSet" priority="261">
@@ -4285,13 +4508,13 @@
     <mergeCell ref="D2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:F18">
     <cfRule type="iconSet" priority="263">
@@ -4535,10 +4758,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A80845-2C96-4FA1-87C0-84083C9C2335}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,7 +4776,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="88" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B1" s="100" t="s">
         <v>0</v>
@@ -4561,60 +4784,60 @@
       <c r="C1" s="100"/>
       <c r="D1" s="100"/>
       <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="86"/>
       <c r="D2" s="99" t="s">
         <v>188</v>
       </c>
       <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="F2" s="102"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="72">
-        <v>100</v>
-      </c>
-      <c r="E4" s="72">
-        <v>100</v>
-      </c>
-      <c r="F4" s="72">
+      <c r="C4" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="103">
+        <v>100</v>
+      </c>
+      <c r="E4" s="103">
+        <v>100</v>
+      </c>
+      <c r="F4" s="107">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="106" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="70" t="s">
@@ -4629,12 +4852,12 @@
       <c r="E5" s="72">
         <v>100</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="106" t="s">
         <v>166</v>
       </c>
       <c r="B6" s="70" t="s">
@@ -4649,12 +4872,12 @@
       <c r="E6" s="72">
         <v>100</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="106" t="s">
         <v>166</v>
       </c>
       <c r="B7" s="70" t="s">
@@ -4669,12 +4892,12 @@
       <c r="E7" s="72">
         <v>100</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="106" t="s">
         <v>166</v>
       </c>
       <c r="B8" s="70" t="s">
@@ -4689,12 +4912,12 @@
       <c r="E8" s="72">
         <v>100</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="106" t="s">
         <v>166</v>
       </c>
       <c r="B9" s="70" t="s">
@@ -4709,12 +4932,12 @@
       <c r="E9" s="72">
         <v>100</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="106" t="s">
         <v>166</v>
       </c>
       <c r="B10" s="70" t="s">
@@ -4729,12 +4952,12 @@
       <c r="E10" s="72">
         <v>100</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="106" t="s">
         <v>166</v>
       </c>
       <c r="B11" s="70" t="s">
@@ -4749,13 +4972,13 @@
       <c r="E11" s="72">
         <v>100</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>166</v>
+      <c r="A12" s="106" t="s">
+        <v>178</v>
       </c>
       <c r="B12" s="70" t="s">
         <v>177</v>
@@ -4769,19 +4992,19 @@
       <c r="E12" s="72">
         <v>100</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="106" t="s">
         <v>178</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="D13" s="72">
         <v>100</v>
@@ -4789,19 +5012,19 @@
       <c r="E13" s="72">
         <v>100</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="106" t="s">
         <v>178</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="D14" s="72">
         <v>100</v>
@@ -4809,19 +5032,19 @@
       <c r="E14" s="72">
         <v>100</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="106" t="s">
         <v>178</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D15" s="72">
         <v>100</v>
@@ -4829,16 +5052,16 @@
       <c r="E15" s="72">
         <v>100</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="106" t="s">
         <v>178</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" s="71" t="s">
         <v>67</v>
@@ -4849,16 +5072,16 @@
       <c r="E16" s="72">
         <v>100</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>178</v>
+      <c r="A17" s="106" t="s">
+        <v>189</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="71" t="s">
         <v>67</v>
@@ -4869,16 +5092,16 @@
       <c r="E17" s="72">
         <v>100</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="106" t="s">
         <v>189</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C18" s="71" t="s">
         <v>67</v>
@@ -4889,16 +5112,16 @@
       <c r="E18" s="72">
         <v>100</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="106" t="s">
         <v>189</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="71" t="s">
         <v>67</v>
@@ -4909,16 +5132,16 @@
       <c r="E19" s="72">
         <v>100</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="106" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="71" t="s">
         <v>67</v>
@@ -4929,19 +5152,19 @@
       <c r="E20" s="72">
         <v>100</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="106" t="s">
         <v>189</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D21" s="72">
         <v>100</v>
@@ -4949,16 +5172,16 @@
       <c r="E21" s="72">
         <v>100</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="106" t="s">
         <v>189</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>28</v>
@@ -4969,451 +5192,459 @@
       <c r="E22" s="72">
         <v>100</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="106" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C23" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="72">
+        <v>100</v>
+      </c>
+      <c r="E23" s="72">
+        <v>100</v>
+      </c>
+      <c r="F23" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="70">
+        <v>2421</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="72">
+        <v>100</v>
+      </c>
+      <c r="E24" s="72">
+        <v>100</v>
+      </c>
+      <c r="F24" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="72">
+        <v>100</v>
+      </c>
+      <c r="E25" s="72">
+        <v>100</v>
+      </c>
+      <c r="F25" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="72">
+        <v>100</v>
+      </c>
+      <c r="E26" s="72">
+        <v>100</v>
+      </c>
+      <c r="F26" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="72">
+        <v>100</v>
+      </c>
+      <c r="E27" s="72">
+        <v>100</v>
+      </c>
+      <c r="F27" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="72">
+        <v>100</v>
+      </c>
+      <c r="E28" s="72">
+        <v>100</v>
+      </c>
+      <c r="F28" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="70">
+        <v>2087</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="72">
+        <v>100</v>
+      </c>
+      <c r="E29" s="72">
+        <v>100</v>
+      </c>
+      <c r="F29" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="72">
+        <v>100</v>
+      </c>
+      <c r="E30" s="72">
+        <v>100</v>
+      </c>
+      <c r="F30" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="72">
+        <v>100</v>
+      </c>
+      <c r="E31" s="72">
+        <v>100</v>
+      </c>
+      <c r="F31" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="72">
+        <v>100</v>
+      </c>
+      <c r="E32" s="72">
+        <v>100</v>
+      </c>
+      <c r="F32" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="72">
+        <v>100</v>
+      </c>
+      <c r="E33" s="72">
+        <v>100</v>
+      </c>
+      <c r="F33" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="72">
+        <v>100</v>
+      </c>
+      <c r="E34" s="72">
+        <v>100</v>
+      </c>
+      <c r="F34" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="72">
+        <v>100</v>
+      </c>
+      <c r="E35" s="72">
+        <v>100</v>
+      </c>
+      <c r="F35" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="92">
+        <v>2447</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="72">
+        <v>100</v>
+      </c>
+      <c r="E36" s="72">
+        <v>100</v>
+      </c>
+      <c r="F36" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="72">
+        <v>100</v>
+      </c>
+      <c r="E37" s="72">
+        <v>100</v>
+      </c>
+      <c r="F37" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="72">
+        <v>100</v>
+      </c>
+      <c r="E38" s="72">
+        <v>100</v>
+      </c>
+      <c r="F38" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="72">
+        <v>100</v>
+      </c>
+      <c r="E39" s="72">
+        <v>100</v>
+      </c>
+      <c r="F39" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="72">
-        <v>100</v>
-      </c>
-      <c r="E23" s="72">
-        <v>100</v>
-      </c>
-      <c r="F23" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="72">
-        <v>100</v>
-      </c>
-      <c r="E24" s="72">
-        <v>100</v>
-      </c>
-      <c r="F24" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="70">
-        <v>2421</v>
-      </c>
-      <c r="C25" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="72">
-        <v>100</v>
-      </c>
-      <c r="E25" s="72">
-        <v>100</v>
-      </c>
-      <c r="F25" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="72">
-        <v>100</v>
-      </c>
-      <c r="E26" s="72">
-        <v>100</v>
-      </c>
-      <c r="F26" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="72">
-        <v>100</v>
-      </c>
-      <c r="E27" s="72">
-        <v>100</v>
-      </c>
-      <c r="F27" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="71" t="s">
+      <c r="D40" s="72">
+        <v>100</v>
+      </c>
+      <c r="E40" s="72">
+        <v>100</v>
+      </c>
+      <c r="F40" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="92">
+        <v>181</v>
+      </c>
+      <c r="C41" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="72">
-        <v>100</v>
-      </c>
-      <c r="E29" s="72">
-        <v>100</v>
-      </c>
-      <c r="F29" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="72">
-        <v>100</v>
-      </c>
-      <c r="E30" s="72">
-        <v>100</v>
-      </c>
-      <c r="F30" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="70">
-        <v>2087</v>
-      </c>
-      <c r="C31" s="71" t="s">
+      <c r="D41" s="72">
+        <v>100</v>
+      </c>
+      <c r="E41" s="72">
+        <v>100</v>
+      </c>
+      <c r="F41" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="72">
+        <v>100</v>
+      </c>
+      <c r="E42" s="72">
+        <v>100</v>
+      </c>
+      <c r="F42" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="72">
+        <v>100</v>
+      </c>
+      <c r="E43" s="72">
+        <v>100</v>
+      </c>
+      <c r="F43" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="72">
-        <v>100</v>
-      </c>
-      <c r="E31" s="72">
-        <v>100</v>
-      </c>
-      <c r="F31" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="72">
-        <v>100</v>
-      </c>
-      <c r="E32" s="72">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="72">
-        <v>100</v>
-      </c>
-      <c r="E33" s="72">
-        <v>0</v>
-      </c>
-      <c r="F33" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="72">
-        <v>100</v>
-      </c>
-      <c r="E34" s="72">
-        <v>100</v>
-      </c>
-      <c r="F34" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="72">
-        <v>100</v>
-      </c>
-      <c r="E35" s="72">
-        <v>0</v>
-      </c>
-      <c r="F35" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="72">
-        <v>-100</v>
-      </c>
-      <c r="E36" s="72">
-        <v>100</v>
-      </c>
-      <c r="F36" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="72">
-        <v>-100</v>
-      </c>
-      <c r="E37" s="72">
-        <v>100</v>
-      </c>
-      <c r="F37" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="72">
-        <v>100</v>
-      </c>
-      <c r="E38" s="72">
-        <v>0</v>
-      </c>
-      <c r="F38" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="72">
-        <v>100</v>
-      </c>
-      <c r="E39" s="72">
-        <v>100</v>
-      </c>
-      <c r="F39" s="72">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B40" s="92">
-        <v>2447</v>
-      </c>
-      <c r="C40" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="72">
-        <v>100</v>
-      </c>
-      <c r="E40" s="72">
-        <v>100</v>
-      </c>
-      <c r="F40" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="72">
-        <v>100</v>
-      </c>
-      <c r="E41" s="72">
-        <v>100</v>
-      </c>
-      <c r="F41" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="72">
-        <v>100</v>
-      </c>
-      <c r="E42" s="72">
-        <v>100</v>
-      </c>
-      <c r="F42" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="72">
-        <v>100</v>
-      </c>
-      <c r="E43" s="72">
-        <v>100</v>
-      </c>
-      <c r="F43" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B44" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>67</v>
-      </c>
       <c r="D44" s="72">
         <v>100</v>
       </c>
       <c r="E44" s="72">
         <v>100</v>
       </c>
-      <c r="F44" s="72">
+      <c r="F44" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
-        <v>211</v>
+      <c r="A45" s="106" t="s">
+        <v>215</v>
       </c>
       <c r="B45" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="72" t="s">
-        <v>67</v>
+        <v>219</v>
+      </c>
+      <c r="C45" s="71" t="s">
+        <v>17</v>
       </c>
       <c r="D45" s="72">
         <v>100</v>
@@ -5421,19 +5652,19 @@
       <c r="E45" s="72">
         <v>100</v>
       </c>
-      <c r="F45" s="72">
+      <c r="F45" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="69" t="s">
-        <v>211</v>
+      <c r="A46" s="106" t="s">
+        <v>215</v>
       </c>
       <c r="B46" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="94" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>221</v>
       </c>
       <c r="D46" s="72">
         <v>100</v>
@@ -5441,19 +5672,19 @@
       <c r="E46" s="72">
         <v>100</v>
       </c>
-      <c r="F46" s="72">
+      <c r="F46" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="69" t="s">
-        <v>211</v>
+      <c r="A47" s="106" t="s">
+        <v>215</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="72" t="s">
-        <v>15</v>
+        <v>222</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>67</v>
       </c>
       <c r="D47" s="72">
         <v>100</v>
@@ -5461,19 +5692,19 @@
       <c r="E47" s="72">
         <v>100</v>
       </c>
-      <c r="F47" s="72">
+      <c r="F47" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="69" t="s">
-        <v>211</v>
+      <c r="A48" s="106" t="s">
+        <v>215</v>
       </c>
       <c r="B48" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="72" t="s">
-        <v>28</v>
+        <v>224</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>112</v>
       </c>
       <c r="D48" s="72">
         <v>100</v>
@@ -5481,308 +5712,568 @@
       <c r="E48" s="72">
         <v>100</v>
       </c>
-      <c r="F48" s="72">
+      <c r="F48" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="92">
-        <v>181</v>
-      </c>
-      <c r="C49" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="72">
+      <c r="A49" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="93">
         <v>100</v>
       </c>
       <c r="E49" s="72">
         <v>100</v>
       </c>
-      <c r="F49" s="72">
+      <c r="F49" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B50" s="92">
-        <v>2476</v>
-      </c>
-      <c r="C50" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="72">
+      <c r="A50" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="93">
         <v>100</v>
       </c>
       <c r="E50" s="72">
         <v>100</v>
       </c>
-      <c r="F50" s="72">
+      <c r="F50" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="69" t="s">
-        <v>217</v>
+      <c r="A51" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B51" s="70" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C51" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="72">
+        <v>112</v>
+      </c>
+      <c r="D51" s="93">
         <v>100</v>
       </c>
       <c r="E51" s="72">
-        <v>0</v>
-      </c>
-      <c r="F51" s="72">
+        <v>100</v>
+      </c>
+      <c r="F51" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="69" t="s">
-        <v>217</v>
+      <c r="A52" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B52" s="70" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C52" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="93">
         <v>100</v>
       </c>
       <c r="E52" s="72">
         <v>100</v>
       </c>
-      <c r="F52" s="72">
-        <v>-100</v>
+      <c r="F52" s="105">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="69" t="s">
-        <v>217</v>
+      <c r="A53" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B53" s="70" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="72">
+        <v>67</v>
+      </c>
+      <c r="D53" s="93">
         <v>100</v>
       </c>
       <c r="E53" s="72">
         <v>100</v>
       </c>
-      <c r="F53" s="72">
+      <c r="F53" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
-        <v>217</v>
+      <c r="A54" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B54" s="70" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C54" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" s="72">
+        <v>67</v>
+      </c>
+      <c r="D54" s="93">
         <v>100</v>
       </c>
       <c r="E54" s="72">
-        <v>-100</v>
-      </c>
-      <c r="F54" s="72">
+        <v>100</v>
+      </c>
+      <c r="F54" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="69" t="s">
-        <v>217</v>
+      <c r="A55" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B55" s="70" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="72">
+        <v>67</v>
+      </c>
+      <c r="D55" s="93">
         <v>100</v>
       </c>
       <c r="E55" s="72">
         <v>100</v>
       </c>
-      <c r="F55" s="72">
+      <c r="F55" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="69" t="s">
-        <v>217</v>
+      <c r="A56" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B56" s="70" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="D56" s="72">
+        <v>67</v>
+      </c>
+      <c r="D56" s="93">
         <v>100</v>
       </c>
       <c r="E56" s="72">
         <v>100</v>
       </c>
-      <c r="F56" s="72">
-        <v>0</v>
+      <c r="F56" s="105">
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="69" t="s">
-        <v>217</v>
+      <c r="A57" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B57" s="70" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C57" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="72">
+      <c r="D57" s="93">
         <v>100</v>
       </c>
       <c r="E57" s="72">
         <v>100</v>
       </c>
-      <c r="F57" s="72">
+      <c r="F57" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
-        <v>217</v>
+      <c r="A58" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C58" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="72">
+      <c r="D58" s="93">
         <v>100</v>
       </c>
       <c r="E58" s="72">
         <v>100</v>
       </c>
-      <c r="F58" s="72">
+      <c r="F58" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
-        <v>217</v>
+      <c r="A59" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="72">
+        <v>112</v>
+      </c>
+      <c r="D59" s="93">
         <v>100</v>
       </c>
       <c r="E59" s="72">
         <v>100</v>
       </c>
-      <c r="F59" s="72">
+      <c r="F59" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="69" t="s">
-        <v>217</v>
+      <c r="A60" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="B60" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="93">
+        <v>100</v>
+      </c>
+      <c r="E60" s="72">
+        <v>100</v>
+      </c>
+      <c r="F60" s="105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="93">
+        <v>100</v>
+      </c>
+      <c r="E61" s="72">
+        <v>100</v>
+      </c>
+      <c r="F61" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="93">
+        <v>100</v>
+      </c>
+      <c r="E62" s="72">
+        <v>100</v>
+      </c>
+      <c r="F62" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="93">
+        <v>100</v>
+      </c>
+      <c r="E63" s="72">
+        <v>100</v>
+      </c>
+      <c r="F63" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="93">
+        <v>100</v>
+      </c>
+      <c r="E64" s="105">
+        <v>100</v>
+      </c>
+      <c r="F64" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="C60" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="72">
-        <v>100</v>
-      </c>
-      <c r="E60" s="72">
-        <v>100</v>
-      </c>
-      <c r="F60" s="72">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="B61" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="72">
-        <v>100</v>
-      </c>
-      <c r="E61" s="72">
-        <v>100</v>
-      </c>
-      <c r="F61" s="72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="B62" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="C62" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="72">
-        <v>-100</v>
-      </c>
-      <c r="E62" s="72">
-        <v>-100</v>
-      </c>
-      <c r="F62" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="B63" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="C63" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="72">
-        <v>-100</v>
-      </c>
-      <c r="E63" s="72">
-        <v>-100</v>
-      </c>
-      <c r="F63" s="72">
-        <v>0</v>
+      <c r="B65" s="92">
+        <v>2506</v>
+      </c>
+      <c r="C65" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="93">
+        <v>100</v>
+      </c>
+      <c r="E65" s="105">
+        <v>100</v>
+      </c>
+      <c r="F65" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="92">
+        <v>195</v>
+      </c>
+      <c r="C66" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="93">
+        <v>100</v>
+      </c>
+      <c r="E66" s="105">
+        <v>100</v>
+      </c>
+      <c r="F66" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="93">
+        <v>100</v>
+      </c>
+      <c r="E67" s="105">
+        <v>100</v>
+      </c>
+      <c r="F67" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="93">
+        <v>100</v>
+      </c>
+      <c r="E68" s="105">
+        <v>100</v>
+      </c>
+      <c r="F68" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="93">
+        <v>100</v>
+      </c>
+      <c r="E69" s="105">
+        <v>100</v>
+      </c>
+      <c r="F69" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="92">
+        <v>104</v>
+      </c>
+      <c r="C70" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="93">
+        <v>100</v>
+      </c>
+      <c r="E70" s="105">
+        <v>100</v>
+      </c>
+      <c r="F70" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="92">
+        <v>223</v>
+      </c>
+      <c r="C71" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="93">
+        <v>100</v>
+      </c>
+      <c r="E71" s="105">
+        <v>100</v>
+      </c>
+      <c r="F71" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="92">
+        <v>2517</v>
+      </c>
+      <c r="C72" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="93">
+        <v>100</v>
+      </c>
+      <c r="E72" s="105">
+        <v>100</v>
+      </c>
+      <c r="F72" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="92">
+        <v>2525</v>
+      </c>
+      <c r="C73" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="93">
+        <v>100</v>
+      </c>
+      <c r="E73" s="105">
+        <v>100</v>
+      </c>
+      <c r="F73" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="92">
+        <v>2524</v>
+      </c>
+      <c r="C74" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="93">
+        <v>100</v>
+      </c>
+      <c r="E74" s="105">
+        <v>100</v>
+      </c>
+      <c r="F74" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="92">
+        <v>2523</v>
+      </c>
+      <c r="C75" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="93">
+        <v>100</v>
+      </c>
+      <c r="E75" s="105">
+        <v>100</v>
+      </c>
+      <c r="F75" s="109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" s="92">
+        <v>247</v>
+      </c>
+      <c r="C76" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="93">
+        <v>100</v>
+      </c>
+      <c r="E76" s="109">
+        <v>100</v>
+      </c>
+      <c r="F76" s="109">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5791,10 +6282,13 @@
     <mergeCell ref="D2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E12">
-    <cfRule type="iconSet" priority="288">
+  <conditionalFormatting sqref="B1:B76">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:E76">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5802,8 +6296,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:E17">
-    <cfRule type="iconSet" priority="300">
+  <conditionalFormatting sqref="D4:E11">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5811,8 +6305,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E31 D40:E40 D41:F47 F4:F38 D32:F39 F40:F61 D56:E61 E49:E55 E48:F48 D48:D55 D62:F62">
-    <cfRule type="iconSet" priority="310">
+  <conditionalFormatting sqref="D12:E16">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5820,8 +6314,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:F63">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="D41:E41 D37:F40 D17:E36 F4:F36 F41:F76">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5834,24 +6328,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD6E7A13-5EE7-46BB-9C00-BF2F830F5DE0}">
-          <x14:formula1>
-            <xm:f>DB!$B$7:$B$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:F63</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{360329EC-B1C6-49A5-ADF9-C76203C1C6D5}">
-          <x14:formula1>
-            <xm:f>DB!$C$7:$C$31</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C63</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6590,10 +7066,10 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A1048576 A1:A39">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B1048576 B1:B39">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D21">
     <cfRule type="iconSet" priority="1">
@@ -7189,7 +7665,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A46:A1048576 A1:A17 A38:A39">
-    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
     <cfRule type="iconSet" priority="1">
@@ -7201,7 +7677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B1048576 B38:B39 B1:B17">
-    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D17">
     <cfRule type="iconSet" priority="3">
@@ -7306,7 +7782,7 @@
     <row r="12" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="29"/>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -7336,7 +7812,7 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
@@ -7366,7 +7842,7 @@
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
@@ -8056,7 +8532,7 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A54:A1048576 A46:A47 A1:A20">
-    <cfRule type="duplicateValues" dxfId="26" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B30">
     <cfRule type="iconSet" priority="2">
@@ -8068,7 +8544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B1048576 B46:B47 B1:B20">
-    <cfRule type="duplicateValues" dxfId="25" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D20">
     <cfRule type="iconSet" priority="147">
@@ -8661,10 +9137,10 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A15:A26">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A1048576 A1:A14">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A33">
     <cfRule type="iconSet" priority="1">
@@ -8676,10 +9152,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B26">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B1048576 B1:B14">
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D14">
     <cfRule type="iconSet" priority="215">
@@ -9318,10 +9794,10 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A1048576 A1:A5 A18:A26">
-    <cfRule type="duplicateValues" dxfId="19" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
     <cfRule type="iconSet" priority="3">
@@ -9333,10 +9809,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B1048576 B1:B5 B18:B26">
-    <cfRule type="duplicateValues" dxfId="17" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D26">
     <cfRule type="iconSet" priority="11">
@@ -9857,10 +10333,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A1048576 A1:A5">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B5 B18:B1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F22">
     <cfRule type="iconSet" priority="2">
@@ -10307,7 +10783,7 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:A25 A1:A5">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
     <cfRule type="iconSet" priority="2">
@@ -10319,7 +10795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B5 B18:B25">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F22">
     <cfRule type="iconSet" priority="1">

--- a/assets/invoice_report.xlsx
+++ b/assets/invoice_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Supervisao\Documents\docs\helpers\vipapp\quickwork\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED44B3A-03E2-4941-B38F-AAAE51248764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B57752-BAAD-48A3-BB09-26C6BB41E212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,8 +44,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId17"/>
-    <pivotCache cacheId="3" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="265">
   <si>
     <t>RELATORIO DIÁRIO DE FACTURAS RECEBIDAS</t>
   </si>
@@ -824,6 +824,63 @@
   </si>
   <si>
     <t>90/842</t>
+  </si>
+  <si>
+    <t>(12/07/2023)</t>
+  </si>
+  <si>
+    <t>(13/07/2023)</t>
+  </si>
+  <si>
+    <t>(14/07/2023)</t>
+  </si>
+  <si>
+    <t>(15/07/2023)</t>
+  </si>
+  <si>
+    <t>A005627</t>
+  </si>
+  <si>
+    <t>INV/2023/4895</t>
+  </si>
+  <si>
+    <t>A002710</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>2549</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>2554</t>
+  </si>
+  <si>
+    <t>2564</t>
+  </si>
+  <si>
+    <t>2561</t>
+  </si>
+  <si>
+    <t>2563</t>
+  </si>
+  <si>
+    <t>2555</t>
+  </si>
+  <si>
+    <t>2556</t>
+  </si>
+  <si>
+    <t>447/22NP</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1138,14 +1195,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,53 +1206,11 @@
       <left style="thin">
         <color theme="2" tint="-0.249977111117893"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="2" tint="-0.249977111117893"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="mediumDashed">
-        <color theme="0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1209,7 +1220,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1459,6 +1470,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1483,46 +1512,13 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1530,7 +1526,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="46">
     <dxf>
       <font>
         <b val="0"/>
@@ -1562,6 +1558,43 @@
         <right style="thin">
           <color theme="2" tint="-0.249977111117893"/>
         </right>
+        <top style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </left>
+        <right/>
         <top style="thin">
           <color theme="2" tint="-0.249977111117893"/>
         </top>
@@ -1606,9 +1639,7 @@
         <top style="thin">
           <color theme="2" tint="-0.249977111117893"/>
         </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1647,9 +1678,7 @@
         <top style="thin">
           <color theme="2" tint="-0.249977111117893"/>
         </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1673,9 +1702,7 @@
         <top style="thin">
           <color theme="2" tint="-0.249977111117893"/>
         </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1690,18 +1717,31 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </left>
         <right style="thin">
           <color theme="2" tint="-0.249977111117893"/>
         </right>
         <top style="thin">
           <color theme="2" tint="-0.249977111117893"/>
         </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.249977111117893"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="mediumDashed">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1732,11 +1772,10 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="mediumDashed">
-          <color theme="0"/>
-        </bottom>
-      </border>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1746,7 +1785,8 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <strike/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -2164,7 +2204,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F673E40-27FC-4B23-850A-25CF2FEDC4D4}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F673E40-27FC-4B23-850A-25CF2FEDC4D4}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -2271,7 +2311,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34EA7E88-28E6-495F-A970-E9BA2B54AF03}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34EA7E88-28E6-495F-A970-E9BA2B54AF03}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2366,15 +2406,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59D3C32A-5F94-4167-BAFD-47802A23A0C0}" name="Table13" displayName="Table13" ref="A3:F76" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" headerRowCellStyle="Accent5">
-  <autoFilter ref="A3:F76" xr:uid="{59D3C32A-5F94-4167-BAFD-47802A23A0C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59D3C32A-5F94-4167-BAFD-47802A23A0C0}" name="Table13" displayName="Table13" ref="A3:F117" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" headerRowCellStyle="Accent5">
+  <autoFilter ref="A3:F117" xr:uid="{59D3C32A-5F94-4167-BAFD-47802A23A0C0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A965B696-0E2D-4F8F-9418-3F239A41703A}" name="DATA" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B4E3DB83-AB6B-4F78-8041-13C851E1CAB8}" name="NUMERO" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F4F24577-E69A-43CD-829A-FACF6E839352}" name="FORNECEDOR" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{271E97DD-8F02-469F-92A2-7E87F1A3654C}" name="ENTRADA" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{376ECA2E-0C4E-4C01-AA03-AF902DFAC4E3}" name="FINALIZAÇÃO" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{44CDFBE5-E2BC-4EB5-80CF-61DA7D7BBEA5}" name="SUJIT"/>
+    <tableColumn id="1" xr3:uid="{A965B696-0E2D-4F8F-9418-3F239A41703A}" name="DATA" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B4E3DB83-AB6B-4F78-8041-13C851E1CAB8}" name="NUMERO" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F4F24577-E69A-43CD-829A-FACF6E839352}" name="FORNECEDOR" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{271E97DD-8F02-469F-92A2-7E87F1A3654C}" name="ENTRADA" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{376ECA2E-0C4E-4C01-AA03-AF902DFAC4E3}" name="FINALIZAÇÃO" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{44CDFBE5-E2BC-4EB5-80CF-61DA7D7BBEA5}" name="SUJIT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2704,12 +2744,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="5" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
@@ -3196,10 +3236,10 @@
     <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="41" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G28">
     <cfRule type="iconSet" priority="3">
@@ -3262,12 +3302,12 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="73"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="75" t="s">
         <v>150</v>
       </c>
@@ -3533,13 +3573,13 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="22" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4">
-    <cfRule type="duplicateValues" dxfId="21" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B27">
-    <cfRule type="duplicateValues" dxfId="20" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F18">
     <cfRule type="iconSet" priority="252">
@@ -3601,12 +3641,12 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="84"/>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="87" t="s">
         <v>166</v>
       </c>
@@ -3848,13 +3888,13 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B18">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F18">
     <cfRule type="iconSet" priority="1">
@@ -3908,21 +3948,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="84"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="86"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="99"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
@@ -4115,13 +4155,13 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="duplicateValues" dxfId="14" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D15 D4:E10">
     <cfRule type="iconSet" priority="261">
@@ -4184,23 +4224,23 @@
       <c r="A1" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="86"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
@@ -4508,13 +4548,13 @@
     <mergeCell ref="D2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:F18">
     <cfRule type="iconSet" priority="263">
@@ -4758,86 +4798,86 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A80845-2C96-4FA1-87C0-84083C9C2335}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
-      <c r="B2" s="113"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="86"/>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="102"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="100" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="103">
-        <v>100</v>
-      </c>
-      <c r="E4" s="103">
-        <v>100</v>
-      </c>
-      <c r="F4" s="107">
+      <c r="C4" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="72">
+        <v>100</v>
+      </c>
+      <c r="E4" s="72">
+        <v>100</v>
+      </c>
+      <c r="F4" s="95">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="69" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="70" t="s">
@@ -4852,12 +4892,12 @@
       <c r="E5" s="72">
         <v>100</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="69" t="s">
         <v>166</v>
       </c>
       <c r="B6" s="70" t="s">
@@ -4872,12 +4912,12 @@
       <c r="E6" s="72">
         <v>100</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="69" t="s">
         <v>166</v>
       </c>
       <c r="B7" s="70" t="s">
@@ -4892,12 +4932,12 @@
       <c r="E7" s="72">
         <v>100</v>
       </c>
-      <c r="F7" s="105">
+      <c r="F7" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="69" t="s">
         <v>166</v>
       </c>
       <c r="B8" s="70" t="s">
@@ -4912,12 +4952,12 @@
       <c r="E8" s="72">
         <v>100</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="69" t="s">
         <v>166</v>
       </c>
       <c r="B9" s="70" t="s">
@@ -4932,12 +4972,12 @@
       <c r="E9" s="72">
         <v>100</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="69" t="s">
         <v>166</v>
       </c>
       <c r="B10" s="70" t="s">
@@ -4952,12 +4992,12 @@
       <c r="E10" s="72">
         <v>100</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="69" t="s">
         <v>166</v>
       </c>
       <c r="B11" s="70" t="s">
@@ -4972,12 +5012,12 @@
       <c r="E11" s="72">
         <v>100</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="69" t="s">
         <v>178</v>
       </c>
       <c r="B12" s="70" t="s">
@@ -4992,12 +5032,12 @@
       <c r="E12" s="72">
         <v>100</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="69" t="s">
         <v>178</v>
       </c>
       <c r="B13" s="70" t="s">
@@ -5012,12 +5052,12 @@
       <c r="E13" s="72">
         <v>100</v>
       </c>
-      <c r="F13" s="105">
+      <c r="F13" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="69" t="s">
         <v>178</v>
       </c>
       <c r="B14" s="70" t="s">
@@ -5032,12 +5072,12 @@
       <c r="E14" s="72">
         <v>100</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="69" t="s">
         <v>178</v>
       </c>
       <c r="B15" s="70" t="s">
@@ -5052,12 +5092,12 @@
       <c r="E15" s="72">
         <v>100</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="69" t="s">
         <v>178</v>
       </c>
       <c r="B16" s="70" t="s">
@@ -5072,12 +5112,12 @@
       <c r="E16" s="72">
         <v>100</v>
       </c>
-      <c r="F16" s="105">
+      <c r="F16" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B17" s="70" t="s">
@@ -5092,12 +5132,12 @@
       <c r="E17" s="72">
         <v>100</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B18" s="70" t="s">
@@ -5112,12 +5152,12 @@
       <c r="E18" s="72">
         <v>100</v>
       </c>
-      <c r="F18" s="105">
+      <c r="F18" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B19" s="70" t="s">
@@ -5132,12 +5172,12 @@
       <c r="E19" s="72">
         <v>100</v>
       </c>
-      <c r="F19" s="105">
+      <c r="F19" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="70" t="s">
@@ -5152,12 +5192,12 @@
       <c r="E20" s="72">
         <v>100</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B21" s="70" t="s">
@@ -5172,12 +5212,12 @@
       <c r="E21" s="72">
         <v>100</v>
       </c>
-      <c r="F21" s="105">
+      <c r="F21" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B22" s="70" t="s">
@@ -5192,12 +5232,12 @@
       <c r="E22" s="72">
         <v>100</v>
       </c>
-      <c r="F22" s="105">
+      <c r="F22" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="70" t="s">
@@ -5212,12 +5252,12 @@
       <c r="E23" s="72">
         <v>100</v>
       </c>
-      <c r="F23" s="105">
+      <c r="F23" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B24" s="70">
@@ -5232,12 +5272,12 @@
       <c r="E24" s="72">
         <v>100</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B25" s="70" t="s">
@@ -5252,12 +5292,12 @@
       <c r="E25" s="72">
         <v>100</v>
       </c>
-      <c r="F25" s="105">
+      <c r="F25" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B26" s="70" t="s">
@@ -5272,12 +5312,12 @@
       <c r="E26" s="72">
         <v>100</v>
       </c>
-      <c r="F26" s="105">
+      <c r="F26" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B27" s="70" t="s">
@@ -5292,12 +5332,12 @@
       <c r="E27" s="72">
         <v>100</v>
       </c>
-      <c r="F27" s="105">
+      <c r="F27" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B28" s="70" t="s">
@@ -5312,12 +5352,12 @@
       <c r="E28" s="72">
         <v>100</v>
       </c>
-      <c r="F28" s="105">
+      <c r="F28" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B29" s="70">
@@ -5332,12 +5372,12 @@
       <c r="E29" s="72">
         <v>100</v>
       </c>
-      <c r="F29" s="105">
+      <c r="F29" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="69" t="s">
         <v>201</v>
       </c>
       <c r="B30" s="70" t="s">
@@ -5352,12 +5392,12 @@
       <c r="E30" s="72">
         <v>100</v>
       </c>
-      <c r="F30" s="105">
+      <c r="F30" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="69" t="s">
         <v>201</v>
       </c>
       <c r="B31" s="70" t="s">
@@ -5372,12 +5412,12 @@
       <c r="E31" s="72">
         <v>100</v>
       </c>
-      <c r="F31" s="105">
+      <c r="F31" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="69" t="s">
         <v>201</v>
       </c>
       <c r="B32" s="70" t="s">
@@ -5392,12 +5432,12 @@
       <c r="E32" s="72">
         <v>100</v>
       </c>
-      <c r="F32" s="105">
+      <c r="F32" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="69" t="s">
         <v>201</v>
       </c>
       <c r="B33" s="70" t="s">
@@ -5412,12 +5452,12 @@
       <c r="E33" s="72">
         <v>100</v>
       </c>
-      <c r="F33" s="105">
+      <c r="F33" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="69" t="s">
         <v>201</v>
       </c>
       <c r="B34" s="70" t="s">
@@ -5432,12 +5472,12 @@
       <c r="E34" s="72">
         <v>100</v>
       </c>
-      <c r="F34" s="105">
+      <c r="F34" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B35" s="92" t="s">
@@ -5452,12 +5492,12 @@
       <c r="E35" s="72">
         <v>100</v>
       </c>
-      <c r="F35" s="105">
+      <c r="F35" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B36" s="92">
@@ -5472,12 +5512,12 @@
       <c r="E36" s="72">
         <v>100</v>
       </c>
-      <c r="F36" s="105">
+      <c r="F36" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="70" t="s">
@@ -5492,12 +5532,12 @@
       <c r="E37" s="72">
         <v>100</v>
       </c>
-      <c r="F37" s="105">
+      <c r="F37" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B38" s="70" t="s">
@@ -5512,12 +5552,12 @@
       <c r="E38" s="72">
         <v>100</v>
       </c>
-      <c r="F38" s="105">
+      <c r="F38" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B39" s="70" t="s">
@@ -5532,12 +5572,12 @@
       <c r="E39" s="72">
         <v>100</v>
       </c>
-      <c r="F39" s="105">
+      <c r="F39" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B40" s="70" t="s">
@@ -5552,12 +5592,12 @@
       <c r="E40" s="72">
         <v>100</v>
       </c>
-      <c r="F40" s="105">
+      <c r="F40" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B41" s="92">
@@ -5572,12 +5612,12 @@
       <c r="E41" s="72">
         <v>100</v>
       </c>
-      <c r="F41" s="105">
+      <c r="F41" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="106" t="s">
+      <c r="A42" s="69" t="s">
         <v>215</v>
       </c>
       <c r="B42" s="70" t="s">
@@ -5592,12 +5632,12 @@
       <c r="E42" s="72">
         <v>100</v>
       </c>
-      <c r="F42" s="105">
+      <c r="F42" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="69" t="s">
         <v>215</v>
       </c>
       <c r="B43" s="70" t="s">
@@ -5612,12 +5652,12 @@
       <c r="E43" s="72">
         <v>100</v>
       </c>
-      <c r="F43" s="105">
+      <c r="F43" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="69" t="s">
         <v>215</v>
       </c>
       <c r="B44" s="70" t="s">
@@ -5632,12 +5672,12 @@
       <c r="E44" s="72">
         <v>100</v>
       </c>
-      <c r="F44" s="105">
+      <c r="F44" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="69" t="s">
         <v>215</v>
       </c>
       <c r="B45" s="70" t="s">
@@ -5652,12 +5692,12 @@
       <c r="E45" s="72">
         <v>100</v>
       </c>
-      <c r="F45" s="105">
+      <c r="F45" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="69" t="s">
         <v>215</v>
       </c>
       <c r="B46" s="70" t="s">
@@ -5672,12 +5712,12 @@
       <c r="E46" s="72">
         <v>100</v>
       </c>
-      <c r="F46" s="105">
+      <c r="F46" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="69" t="s">
         <v>215</v>
       </c>
       <c r="B47" s="70" t="s">
@@ -5692,12 +5732,12 @@
       <c r="E47" s="72">
         <v>100</v>
       </c>
-      <c r="F47" s="105">
+      <c r="F47" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="69" t="s">
         <v>215</v>
       </c>
       <c r="B48" s="70" t="s">
@@ -5712,18 +5752,18 @@
       <c r="E48" s="72">
         <v>100</v>
       </c>
-      <c r="F48" s="105">
+      <c r="F48" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B49" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="96" t="s">
         <v>67</v>
       </c>
       <c r="D49" s="93">
@@ -5732,18 +5772,18 @@
       <c r="E49" s="72">
         <v>100</v>
       </c>
-      <c r="F49" s="105">
+      <c r="F49" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="108" t="s">
+      <c r="A50" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B50" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="C50" s="104" t="s">
+      <c r="C50" s="96" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="93">
@@ -5752,12 +5792,12 @@
       <c r="E50" s="72">
         <v>100</v>
       </c>
-      <c r="F50" s="105">
+      <c r="F50" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B51" s="70" t="s">
@@ -5772,12 +5812,12 @@
       <c r="E51" s="72">
         <v>100</v>
       </c>
-      <c r="F51" s="105">
+      <c r="F51" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B52" s="70" t="s">
@@ -5792,12 +5832,12 @@
       <c r="E52" s="72">
         <v>100</v>
       </c>
-      <c r="F52" s="105">
+      <c r="F52" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="108" t="s">
+      <c r="A53" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B53" s="70" t="s">
@@ -5812,12 +5852,12 @@
       <c r="E53" s="72">
         <v>100</v>
       </c>
-      <c r="F53" s="105">
+      <c r="F53" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B54" s="70" t="s">
@@ -5832,12 +5872,12 @@
       <c r="E54" s="72">
         <v>100</v>
       </c>
-      <c r="F54" s="105">
+      <c r="F54" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="108" t="s">
+      <c r="A55" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B55" s="70" t="s">
@@ -5852,12 +5892,12 @@
       <c r="E55" s="72">
         <v>100</v>
       </c>
-      <c r="F55" s="105">
+      <c r="F55" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="108" t="s">
+      <c r="A56" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B56" s="70" t="s">
@@ -5872,12 +5912,12 @@
       <c r="E56" s="72">
         <v>100</v>
       </c>
-      <c r="F56" s="105">
+      <c r="F56" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="108" t="s">
+      <c r="A57" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B57" s="70" t="s">
@@ -5892,12 +5932,12 @@
       <c r="E57" s="72">
         <v>100</v>
       </c>
-      <c r="F57" s="105">
+      <c r="F57" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B58" s="70" t="s">
@@ -5912,12 +5952,12 @@
       <c r="E58" s="72">
         <v>100</v>
       </c>
-      <c r="F58" s="105">
+      <c r="F58" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B59" s="70" t="s">
@@ -5932,12 +5972,12 @@
       <c r="E59" s="72">
         <v>100</v>
       </c>
-      <c r="F59" s="105">
+      <c r="F59" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -5952,12 +5992,12 @@
       <c r="E60" s="72">
         <v>100</v>
       </c>
-      <c r="F60" s="105">
+      <c r="F60" s="72">
         <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="109" t="s">
         <v>228</v>
       </c>
       <c r="B61" s="70" t="s">
@@ -5972,12 +6012,12 @@
       <c r="E61" s="72">
         <v>100</v>
       </c>
-      <c r="F61" s="109">
+      <c r="F61" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="108" t="s">
+      <c r="A62" s="109" t="s">
         <v>239</v>
       </c>
       <c r="B62" s="70" t="s">
@@ -5992,12 +6032,12 @@
       <c r="E62" s="72">
         <v>100</v>
       </c>
-      <c r="F62" s="109">
+      <c r="F62" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="109" t="s">
         <v>239</v>
       </c>
       <c r="B63" s="70" t="s">
@@ -6012,12 +6052,12 @@
       <c r="E63" s="72">
         <v>100</v>
       </c>
-      <c r="F63" s="109">
+      <c r="F63" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="108" t="s">
+      <c r="A64" s="109" t="s">
         <v>239</v>
       </c>
       <c r="B64" s="70" t="s">
@@ -6029,265 +6069,1022 @@
       <c r="D64" s="93">
         <v>100</v>
       </c>
-      <c r="E64" s="105">
-        <v>100</v>
-      </c>
-      <c r="F64" s="109">
+      <c r="E64" s="97">
+        <v>100</v>
+      </c>
+      <c r="F64" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="92">
         <v>2506</v>
       </c>
-      <c r="C65" s="104" t="s">
+      <c r="C65" s="96" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="93">
         <v>100</v>
       </c>
-      <c r="E65" s="105">
-        <v>100</v>
-      </c>
-      <c r="F65" s="109">
+      <c r="E65" s="97">
+        <v>100</v>
+      </c>
+      <c r="F65" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="108" t="s">
+      <c r="A66" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B66" s="92">
         <v>195</v>
       </c>
-      <c r="C66" s="104" t="s">
+      <c r="C66" s="96" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="93">
         <v>100</v>
       </c>
-      <c r="E66" s="105">
-        <v>100</v>
-      </c>
-      <c r="F66" s="109">
+      <c r="E66" s="97">
+        <v>100</v>
+      </c>
+      <c r="F66" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="108" t="s">
+      <c r="A67" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B67" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="C67" s="104" t="s">
+      <c r="C67" s="96" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="93">
         <v>100</v>
       </c>
-      <c r="E67" s="105">
-        <v>100</v>
-      </c>
-      <c r="F67" s="109">
+      <c r="E67" s="97">
+        <v>100</v>
+      </c>
+      <c r="F67" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B68" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="C68" s="104" t="s">
+      <c r="C68" s="96" t="s">
         <v>86</v>
       </c>
       <c r="D68" s="93">
         <v>100</v>
       </c>
-      <c r="E68" s="105">
-        <v>100</v>
-      </c>
-      <c r="F68" s="109">
+      <c r="E68" s="97">
+        <v>100</v>
+      </c>
+      <c r="F68" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B69" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="104" t="s">
+      <c r="C69" s="96" t="s">
         <v>86</v>
       </c>
       <c r="D69" s="93">
         <v>100</v>
       </c>
-      <c r="E69" s="105">
-        <v>100</v>
-      </c>
-      <c r="F69" s="109">
+      <c r="E69" s="97">
+        <v>100</v>
+      </c>
+      <c r="F69" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="108" t="s">
+      <c r="A70" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B70" s="92">
         <v>104</v>
       </c>
-      <c r="C70" s="104" t="s">
+      <c r="C70" s="96" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="93">
         <v>100</v>
       </c>
-      <c r="E70" s="105">
-        <v>100</v>
-      </c>
-      <c r="F70" s="109">
+      <c r="E70" s="97">
+        <v>100</v>
+      </c>
+      <c r="F70" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="108" t="s">
+      <c r="A71" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B71" s="92">
         <v>223</v>
       </c>
-      <c r="C71" s="104" t="s">
+      <c r="C71" s="96" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="93">
         <v>100</v>
       </c>
-      <c r="E71" s="105">
-        <v>100</v>
-      </c>
-      <c r="F71" s="109">
+      <c r="E71" s="97">
+        <v>100</v>
+      </c>
+      <c r="F71" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="108" t="s">
+      <c r="A72" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B72" s="92">
         <v>2517</v>
       </c>
-      <c r="C72" s="104" t="s">
+      <c r="C72" s="96" t="s">
         <v>67</v>
       </c>
       <c r="D72" s="93">
         <v>100</v>
       </c>
-      <c r="E72" s="105">
-        <v>100</v>
-      </c>
-      <c r="F72" s="109">
+      <c r="E72" s="97">
+        <v>100</v>
+      </c>
+      <c r="F72" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B73" s="92">
         <v>2525</v>
       </c>
-      <c r="C73" s="104" t="s">
+      <c r="C73" s="96" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="93">
         <v>100</v>
       </c>
-      <c r="E73" s="105">
-        <v>100</v>
-      </c>
-      <c r="F73" s="109">
+      <c r="E73" s="97">
+        <v>100</v>
+      </c>
+      <c r="F73" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="108" t="s">
-        <v>227</v>
+      <c r="A74" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="B74" s="92">
         <v>2524</v>
       </c>
-      <c r="C74" s="104" t="s">
+      <c r="C74" s="96" t="s">
         <v>67</v>
       </c>
       <c r="D74" s="93">
         <v>100</v>
       </c>
-      <c r="E74" s="105">
-        <v>100</v>
-      </c>
-      <c r="F74" s="109">
+      <c r="E74" s="97">
+        <v>100</v>
+      </c>
+      <c r="F74" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="108" t="s">
-        <v>227</v>
+      <c r="A75" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="B75" s="92">
         <v>2523</v>
       </c>
-      <c r="C75" s="104" t="s">
+      <c r="C75" s="96" t="s">
         <v>67</v>
       </c>
       <c r="D75" s="93">
         <v>100</v>
       </c>
-      <c r="E75" s="105">
-        <v>100</v>
-      </c>
-      <c r="F75" s="109">
+      <c r="E75" s="97">
+        <v>100</v>
+      </c>
+      <c r="F75" s="93">
         <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="108" t="s">
+      <c r="A76" s="109" t="s">
         <v>227</v>
       </c>
       <c r="B76" s="92">
         <v>247</v>
       </c>
-      <c r="C76" s="104" t="s">
+      <c r="C76" s="96" t="s">
         <v>52</v>
       </c>
       <c r="D76" s="93">
         <v>100</v>
       </c>
-      <c r="E76" s="109">
-        <v>100</v>
-      </c>
-      <c r="F76" s="109">
-        <v>100</v>
-      </c>
+      <c r="E76" s="97">
+        <v>100</v>
+      </c>
+      <c r="F76" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="C77" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="93">
+        <v>100</v>
+      </c>
+      <c r="E77" s="97">
+        <v>100</v>
+      </c>
+      <c r="F77" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="92">
+        <v>2533</v>
+      </c>
+      <c r="C78" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="93">
+        <v>100</v>
+      </c>
+      <c r="E78" s="97">
+        <v>100</v>
+      </c>
+      <c r="F78" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="92">
+        <v>2532</v>
+      </c>
+      <c r="C79" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="93">
+        <v>100</v>
+      </c>
+      <c r="E79" s="97">
+        <v>100</v>
+      </c>
+      <c r="F79" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="92">
+        <v>2542</v>
+      </c>
+      <c r="C80" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="93">
+        <v>100</v>
+      </c>
+      <c r="E80" s="97">
+        <v>100</v>
+      </c>
+      <c r="F80" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="92">
+        <v>2541</v>
+      </c>
+      <c r="C81" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="93">
+        <v>100</v>
+      </c>
+      <c r="E81" s="97">
+        <v>100</v>
+      </c>
+      <c r="F81" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" s="92">
+        <v>2540</v>
+      </c>
+      <c r="C82" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" s="93">
+        <v>100</v>
+      </c>
+      <c r="E82" s="97">
+        <v>100</v>
+      </c>
+      <c r="F82" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" s="92">
+        <v>105</v>
+      </c>
+      <c r="C83" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="93">
+        <v>100</v>
+      </c>
+      <c r="E83" s="97">
+        <v>100</v>
+      </c>
+      <c r="F83" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="93">
+        <v>100</v>
+      </c>
+      <c r="E84" s="97">
+        <v>100</v>
+      </c>
+      <c r="F84" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="92">
+        <v>170</v>
+      </c>
+      <c r="C85" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="93">
+        <v>100</v>
+      </c>
+      <c r="E85" s="97">
+        <v>100</v>
+      </c>
+      <c r="F85" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="93">
+        <v>100</v>
+      </c>
+      <c r="E86" s="97">
+        <v>100</v>
+      </c>
+      <c r="F86" s="111"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" s="92">
+        <v>2544</v>
+      </c>
+      <c r="C87" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="93">
+        <v>100</v>
+      </c>
+      <c r="E87" s="97">
+        <v>-100</v>
+      </c>
+      <c r="F87" s="111"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" s="92">
+        <v>2548</v>
+      </c>
+      <c r="C88" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="93">
+        <v>100</v>
+      </c>
+      <c r="E88" s="97">
+        <v>100</v>
+      </c>
+      <c r="F88" s="111"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="92">
+        <v>2550</v>
+      </c>
+      <c r="C89" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="93">
+        <v>100</v>
+      </c>
+      <c r="E89" s="97">
+        <v>100</v>
+      </c>
+      <c r="F89" s="111"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="93">
+        <v>100</v>
+      </c>
+      <c r="E90" s="97">
+        <v>100</v>
+      </c>
+      <c r="F90" s="111"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="93">
+        <v>100</v>
+      </c>
+      <c r="E91" s="97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B92" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="93">
+        <v>100</v>
+      </c>
+      <c r="E92" s="97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B93" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="93">
+        <v>100</v>
+      </c>
+      <c r="E93" s="97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="93">
+        <v>100</v>
+      </c>
+      <c r="E94" s="97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="93">
+        <v>100</v>
+      </c>
+      <c r="E95" s="97">
+        <v>100</v>
+      </c>
+      <c r="F95" s="111"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="93">
+        <v>100</v>
+      </c>
+      <c r="E96" s="97">
+        <v>100</v>
+      </c>
+      <c r="F96" s="111"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B97" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="93">
+        <v>100</v>
+      </c>
+      <c r="E97" s="97">
+        <v>100</v>
+      </c>
+      <c r="F97" s="111"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="93">
+        <v>100</v>
+      </c>
+      <c r="E98" s="97">
+        <v>100</v>
+      </c>
+      <c r="F98" s="111"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="93">
+        <v>100</v>
+      </c>
+      <c r="E99" s="97">
+        <v>100</v>
+      </c>
+      <c r="F99" s="111"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="92">
+        <v>2567</v>
+      </c>
+      <c r="C100" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="93">
+        <v>100</v>
+      </c>
+      <c r="E100" s="97">
+        <v>100</v>
+      </c>
+      <c r="F100" s="111"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="92">
+        <v>2565</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="93">
+        <v>100</v>
+      </c>
+      <c r="E101" s="97">
+        <v>100</v>
+      </c>
+      <c r="F101" s="111"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B102" s="92">
+        <v>2566</v>
+      </c>
+      <c r="C102" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" s="93">
+        <v>100</v>
+      </c>
+      <c r="E102" s="97">
+        <v>100</v>
+      </c>
+      <c r="F102" s="111"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B103" s="92">
+        <v>2577</v>
+      </c>
+      <c r="C103" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="93">
+        <v>100</v>
+      </c>
+      <c r="E103" s="97">
+        <v>100</v>
+      </c>
+      <c r="F103" s="111"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" s="92">
+        <v>2575</v>
+      </c>
+      <c r="C104" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" s="93">
+        <v>100</v>
+      </c>
+      <c r="E104" s="97">
+        <v>100</v>
+      </c>
+      <c r="F104" s="111"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B105" s="110" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="93">
+        <v>100</v>
+      </c>
+      <c r="E105" s="97">
+        <v>100</v>
+      </c>
+      <c r="F105" s="111"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B106" s="110">
+        <v>2581</v>
+      </c>
+      <c r="C106" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="93">
+        <v>100</v>
+      </c>
+      <c r="E106" s="97">
+        <v>100</v>
+      </c>
+      <c r="F106" s="111"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" s="110">
+        <v>2580</v>
+      </c>
+      <c r="C107" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="93">
+        <v>100</v>
+      </c>
+      <c r="E107" s="97">
+        <v>100</v>
+      </c>
+      <c r="F107" s="111"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" s="110">
+        <v>2583</v>
+      </c>
+      <c r="C108" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" s="93">
+        <v>100</v>
+      </c>
+      <c r="E108" s="97">
+        <v>100</v>
+      </c>
+      <c r="F108" s="111"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B109" s="110">
+        <v>2585</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="93">
+        <v>100</v>
+      </c>
+      <c r="E109" s="97"/>
+      <c r="F109" s="111"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="110">
+        <v>2586</v>
+      </c>
+      <c r="C110" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="93">
+        <v>100</v>
+      </c>
+      <c r="E110" s="97">
+        <v>100</v>
+      </c>
+      <c r="F110" s="111"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B111" s="110">
+        <v>2584</v>
+      </c>
+      <c r="C111" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" s="93">
+        <v>100</v>
+      </c>
+      <c r="E111" s="97"/>
+      <c r="F111" s="111"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" s="110">
+        <v>2594</v>
+      </c>
+      <c r="C112" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D112" s="93">
+        <v>100</v>
+      </c>
+      <c r="E112" s="97"/>
+      <c r="F112" s="111"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" s="110">
+        <v>2593</v>
+      </c>
+      <c r="C113" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113" s="93">
+        <v>100</v>
+      </c>
+      <c r="E113" s="97"/>
+      <c r="F113" s="111"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B114" s="110">
+        <v>2582</v>
+      </c>
+      <c r="C114" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="93">
+        <v>100</v>
+      </c>
+      <c r="E114" s="97"/>
+      <c r="F114" s="111"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="110">
+        <v>1546</v>
+      </c>
+      <c r="C115" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="93">
+        <v>100</v>
+      </c>
+      <c r="E115" s="97"/>
+      <c r="F115" s="111"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B116" s="110" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="93">
+        <v>100</v>
+      </c>
+      <c r="E116" s="97"/>
+      <c r="F116" s="111"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" s="110">
+        <v>224</v>
+      </c>
+      <c r="C117" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="93">
+        <v>100</v>
+      </c>
+      <c r="F117" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="D2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B76">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:E76">
+  <conditionalFormatting sqref="B4:B117">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:E11">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:E16">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41 D37:F40 D17:E36 F4:F36 F41:F104">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -6296,26 +7093,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E11">
+  <conditionalFormatting sqref="D42:E116 D117">
     <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Symbols2" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:E16">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Symbols2" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41 D37:F40 D17:E36 F4:F36 F41:F76">
-    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -6351,12 +7130,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="12" t="s">
         <v>53</v>
       </c>
@@ -7066,10 +7845,10 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A1048576 A1:A39">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B1048576 B1:B39">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D21">
     <cfRule type="iconSet" priority="1">
@@ -7131,12 +7910,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="12" t="s">
         <v>79</v>
       </c>
@@ -7665,7 +8444,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A46:A1048576 A1:A17 A38:A39">
-    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
     <cfRule type="iconSet" priority="1">
@@ -7677,7 +8456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B1048576 B38:B39 B1:B17">
-    <cfRule type="duplicateValues" dxfId="37" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D17">
     <cfRule type="iconSet" priority="3">
@@ -7913,12 +8692,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="12" t="s">
         <v>91</v>
       </c>
@@ -8532,7 +9311,7 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A54:A1048576 A46:A47 A1:A20">
-    <cfRule type="duplicateValues" dxfId="36" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B30">
     <cfRule type="iconSet" priority="2">
@@ -8544,7 +9323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B1048576 B46:B47 B1:B20">
-    <cfRule type="duplicateValues" dxfId="35" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D20">
     <cfRule type="iconSet" priority="147">
@@ -8631,12 +9410,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="12" t="s">
         <v>110</v>
       </c>
@@ -9137,10 +9916,10 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A15:A26">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A1048576 A1:A14">
-    <cfRule type="duplicateValues" dxfId="33" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A33">
     <cfRule type="iconSet" priority="1">
@@ -9152,10 +9931,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B26">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B1048576 B1:B14">
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D14">
     <cfRule type="iconSet" priority="215">
@@ -9265,12 +10044,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="12" t="s">
         <v>111</v>
       </c>
@@ -9794,10 +10573,10 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A1048576 A1:A5 A18:A26">
-    <cfRule type="duplicateValues" dxfId="29" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
     <cfRule type="iconSet" priority="3">
@@ -9809,10 +10588,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B1048576 B1:B5 B18:B26">
-    <cfRule type="duplicateValues" dxfId="27" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D26">
     <cfRule type="iconSet" priority="11">
@@ -9940,12 +10719,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="12" t="s">
         <v>119</v>
       </c>
@@ -10333,10 +11112,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A1048576 A1:A5">
-    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B5 B18:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F22">
     <cfRule type="iconSet" priority="2">
@@ -10399,12 +11178,12 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="73"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="75" t="s">
         <v>139</v>
       </c>
@@ -10783,7 +11562,7 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:A25 A1:A5">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
     <cfRule type="iconSet" priority="2">
@@ -10795,7 +11574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B5 B18:B25">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F22">
     <cfRule type="iconSet" priority="1">
